--- a/Data/components_sensitivity_4ROIs_ANOVA_format.xlsx
+++ b/Data/components_sensitivity_4ROIs_ANOVA_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jenn\Documents\ShapeSensitivity\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137006AC-3EB6-4376-980A-E33E760AF840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8399AAFD-3E01-48F2-A267-AA293F51B9E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-435" windowWidth="29040" windowHeight="16440" xr2:uid="{E09133FB-91B0-433F-B971-2FE62841AF7E}"/>
+    <workbookView xWindow="-10590" yWindow="-60" windowWidth="8805" windowHeight="11850" xr2:uid="{E09133FB-91B0-433F-B971-2FE62841AF7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="39">
   <si>
     <t>Betas</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Novel_sub12</t>
+  </si>
+  <si>
+    <t>Sensitivity_limited</t>
+  </si>
+  <si>
+    <t>Sensitivity_All</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A8991C-BC73-4E0F-BED1-CBE89D3E85DF}">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +512,7 @@
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4369,6 +4375,7686 @@
         <v>36</v>
       </c>
     </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.13196258866396801</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.112006311219512</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" t="s">
+        <v>37</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.105529953781512</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" t="s">
+        <v>37</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9.2969373404255096E-2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" t="s">
+        <v>37</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.14280120794871801</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>37</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.104936918055555</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>37</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.162695993150685</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>37</v>
+      </c>
+      <c r="F200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.13327971322580601</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>37</v>
+      </c>
+      <c r="F201" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.12669122835443</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>37</v>
+      </c>
+      <c r="F202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.107688506477733</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>37</v>
+      </c>
+      <c r="F203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.12641689765258199</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.17774735819521101</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" t="s">
+        <v>37</v>
+      </c>
+      <c r="F205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.15196912115789499</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" t="s">
+        <v>37</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.134214419887006</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>37</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.14878572919463101</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" t="s">
+        <v>37</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.12882593847566501</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" t="s">
+        <v>37</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.14446640399999999</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>37</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.10578838404384899</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" t="s">
+        <v>37</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.163847585489833</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" t="s">
+        <v>37</v>
+      </c>
+      <c r="F212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.15146458200757601</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>37</v>
+      </c>
+      <c r="F213" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.128267306973501</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" t="s">
+        <v>37</v>
+      </c>
+      <c r="F214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.134621020921986</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" t="s">
+        <v>37</v>
+      </c>
+      <c r="F215" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.12591343527950299</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>37</v>
+      </c>
+      <c r="F216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.224178502719033</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" t="s">
+        <v>37</v>
+      </c>
+      <c r="F217" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.11933836121212101</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.110759918295739</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>37</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.12737794467532401</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>37</v>
+      </c>
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.13621176417112299</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>37</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.13000570196078401</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" t="s">
+        <v>37</v>
+      </c>
+      <c r="F222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.145599544989339</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" t="s">
+        <v>37</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.13966888939393901</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" t="s">
+        <v>37</v>
+      </c>
+      <c r="F224" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.18018794824281101</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" t="s">
+        <v>37</v>
+      </c>
+      <c r="F225" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.113410747252747</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" t="s">
+        <v>37</v>
+      </c>
+      <c r="F226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.13403233719806801</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F227" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.124606977663934</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" t="s">
+        <v>37</v>
+      </c>
+      <c r="F228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.16801973832116801</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" t="s">
+        <v>37</v>
+      </c>
+      <c r="F229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.15980978261665099</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" t="s">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.137226583600493</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>37</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.157020883301527</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>37</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.15067737810158199</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" t="s">
+        <v>37</v>
+      </c>
+      <c r="F233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.162100043228602</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" t="s">
+        <v>37</v>
+      </c>
+      <c r="F234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.17268677253668799</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>37</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.12066553544165699</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>37</v>
+      </c>
+      <c r="F236" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.193138707142857</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>37</v>
+      </c>
+      <c r="F237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.113137090809628</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" t="s">
+        <v>37</v>
+      </c>
+      <c r="F238" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.12411791651560899</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" t="s">
+        <v>37</v>
+      </c>
+      <c r="F239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.15399208170478099</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>37</v>
+      </c>
+      <c r="F240" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.21286956067073201</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" t="s">
+        <v>37</v>
+      </c>
+      <c r="F241" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.13536572349397599</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>37</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>7.2851045945945797E-2</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>37</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.127504096774193</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" t="s">
+        <v>37</v>
+      </c>
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5.70899941176468E-2</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" t="s">
+        <v>37</v>
+      </c>
+      <c r="F245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.17350642021276599</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" t="s">
+        <v>37</v>
+      </c>
+      <c r="F246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.12104780733333299</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" t="s">
+        <v>37</v>
+      </c>
+      <c r="F247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.17510090535714301</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" t="s">
+        <v>37</v>
+      </c>
+      <c r="F248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0.12810882690355299</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" t="s">
+        <v>37</v>
+      </c>
+      <c r="F249" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>8.7796178947368395E-2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>37</v>
+      </c>
+      <c r="F250" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.110759645901639</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" t="s">
+        <v>37</v>
+      </c>
+      <c r="F251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>8.77155199999997E-2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>37</v>
+      </c>
+      <c r="F252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0.181847711299435</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>37</v>
+      </c>
+      <c r="F253" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.14208686329526901</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" t="s">
+        <v>37</v>
+      </c>
+      <c r="F254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0.118338436107987</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>37</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0.132020810971787</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" t="s">
+        <v>37</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>8.8981089576547101E-2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" t="s">
+        <v>37</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0.13237952935560901</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>37</v>
+      </c>
+      <c r="F258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.10700016162928</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" t="s">
+        <v>37</v>
+      </c>
+      <c r="F259" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0.13381222768595</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>37</v>
+      </c>
+      <c r="F260" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0.13192904432132899</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>37</v>
+      </c>
+      <c r="F261" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>8.9771730803571301E-2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>37</v>
+      </c>
+      <c r="F262" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.100276830060423</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" t="s">
+        <v>37</v>
+      </c>
+      <c r="F263" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.102802639</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" t="s">
+        <v>37</v>
+      </c>
+      <c r="F264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0.160195312941176</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" t="s">
+        <v>37</v>
+      </c>
+      <c r="F265" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0.10931988974359</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>9.0785088435373903E-2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" t="s">
+        <v>37</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0.13158989724770601</v>
+      </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" t="s">
+        <v>37</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0.113853541573034</v>
+      </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" t="s">
+        <v>37</v>
+      </c>
+      <c r="F269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0.144018593103448</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" t="s">
+        <v>37</v>
+      </c>
+      <c r="F270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0.108549716</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" t="s">
+        <v>37</v>
+      </c>
+      <c r="F271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0.14166233958333299</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" t="s">
+        <v>37</v>
+      </c>
+      <c r="F272" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0.15120762610837399</v>
+      </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>37</v>
+      </c>
+      <c r="F273" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0.11643949448818899</v>
+      </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" t="s">
+        <v>37</v>
+      </c>
+      <c r="F274" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0.122419828947368</v>
+      </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>37</v>
+      </c>
+      <c r="F275" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0.14157032542372899</v>
+      </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>37</v>
+      </c>
+      <c r="F276" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0.18032336078431299</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>37</v>
+      </c>
+      <c r="F277" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0.139087133883495</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>37</v>
+      </c>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>9.8103206507790794E-2</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>37</v>
+      </c>
+      <c r="F279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0.14090834354986301</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" t="s">
+        <v>37</v>
+      </c>
+      <c r="F280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>6.6552445009416095E-2</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" t="s">
+        <v>37</v>
+      </c>
+      <c r="F281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0.12854739878391</v>
+      </c>
+      <c r="B282" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" t="s">
+        <v>37</v>
+      </c>
+      <c r="F282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>9.9533161024498704E-2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>37</v>
+      </c>
+      <c r="F283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0.14615999498746901</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" t="s">
+        <v>37</v>
+      </c>
+      <c r="F284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0.149616550531915</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" t="s">
+        <v>37</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>8.8834637971391406E-2</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" t="s">
+        <v>37</v>
+      </c>
+      <c r="F286" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0.105599369689441</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" t="s">
+        <v>37</v>
+      </c>
+      <c r="F287" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>9.7431404761904705E-2</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" t="s">
+        <v>37</v>
+      </c>
+      <c r="F288" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0.15570666488262899</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>37</v>
+      </c>
+      <c r="F289" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>8.4772535377358404E-2</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" t="s">
+        <v>37</v>
+      </c>
+      <c r="F290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0.12919031899563299</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
+        <v>37</v>
+      </c>
+      <c r="F291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>9.6250042523364304E-2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" t="s">
+        <v>37</v>
+      </c>
+      <c r="F292" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>8.2783783006535799E-2</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>37</v>
+      </c>
+      <c r="F293" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>9.9371728629032097E-2</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" t="s">
+        <v>37</v>
+      </c>
+      <c r="F294" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.123891026298701</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" t="s">
+        <v>37</v>
+      </c>
+      <c r="F295" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0.199615886561265</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
+        <v>37</v>
+      </c>
+      <c r="F296" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0.12467497520938001</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" t="s">
+        <v>37</v>
+      </c>
+      <c r="F297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0.117369029969419</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" t="s">
+        <v>37</v>
+      </c>
+      <c r="F298" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>8.8141510465116202E-2</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" t="s">
+        <v>37</v>
+      </c>
+      <c r="F299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0.11802120000000001</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>37</v>
+      </c>
+      <c r="F300" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0.104151096202531</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" t="s">
+        <v>37</v>
+      </c>
+      <c r="F301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>7.4888092379835694E-2</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" t="s">
+        <v>37</v>
+      </c>
+      <c r="F302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0.159569039390863</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" t="s">
+        <v>37</v>
+      </c>
+      <c r="F303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>9.7494126411075396E-2</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" t="s">
+        <v>37</v>
+      </c>
+      <c r="F304" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>6.5063896613756597E-2</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>37</v>
+      </c>
+      <c r="F305" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0.105432517374517</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" t="s">
+        <v>37</v>
+      </c>
+      <c r="F306" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0.133531432639792</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>37</v>
+      </c>
+      <c r="F307" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0.126308153153153</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" t="s">
+        <v>37</v>
+      </c>
+      <c r="F308" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0.133709709557774</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" t="s">
+        <v>37</v>
+      </c>
+      <c r="F309" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0.10107973635371199</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" t="s">
+        <v>37</v>
+      </c>
+      <c r="F310" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>8.6728819526066203E-2</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>37</v>
+      </c>
+      <c r="F311" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0.14277391446188301</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" t="s">
+        <v>37</v>
+      </c>
+      <c r="F312" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>8.7673697611940202E-2</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" t="s">
+        <v>37</v>
+      </c>
+      <c r="F313" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>7.9722959842519606E-2</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" t="s">
+        <v>37</v>
+      </c>
+      <c r="F314" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0.143973822921348</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" t="s">
+        <v>37</v>
+      </c>
+      <c r="F315" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0.12697101588235299</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" t="s">
+        <v>37</v>
+      </c>
+      <c r="F316" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0.110742532407407</v>
+      </c>
+      <c r="B317" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" t="s">
+        <v>37</v>
+      </c>
+      <c r="F317" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0.15258740406976701</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" t="s">
+        <v>37</v>
+      </c>
+      <c r="F318" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0.140473653402062</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" t="s">
+        <v>37</v>
+      </c>
+      <c r="F319" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0.15833573333333301</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" t="s">
+        <v>37</v>
+      </c>
+      <c r="F320" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0.1576479596</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" t="s">
+        <v>37</v>
+      </c>
+      <c r="F321" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0.12638756432748499</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" t="s">
+        <v>37</v>
+      </c>
+      <c r="F322" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>8.7934570270270102E-2</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" t="s">
+        <v>37</v>
+      </c>
+      <c r="F323" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>0.116079589224138</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" t="s">
+        <v>37</v>
+      </c>
+      <c r="F324" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0.14412838192771099</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" t="s">
+        <v>37</v>
+      </c>
+      <c r="F325" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>7.4984337845303797E-2</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" t="s">
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>0.15641965130344099</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" t="s">
+        <v>37</v>
+      </c>
+      <c r="F327" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>0.101823913833992</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" t="s">
+        <v>37</v>
+      </c>
+      <c r="F328" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>8.1822592239685604E-2</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" t="s">
+        <v>37</v>
+      </c>
+      <c r="F329" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>0.100746427048114</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" t="s">
+        <v>37</v>
+      </c>
+      <c r="F330" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>0.16173581232687001</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" t="s">
+        <v>37</v>
+      </c>
+      <c r="F331" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>0.109647920856354</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332" t="s">
+        <v>37</v>
+      </c>
+      <c r="F332" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>0.15573788992629001</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>11</v>
+      </c>
+      <c r="E333" t="s">
+        <v>37</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0.110903269249106</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334" t="s">
+        <v>37</v>
+      </c>
+      <c r="F334" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>7.8679087047200794E-2</v>
+      </c>
+      <c r="B335" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335" t="s">
+        <v>37</v>
+      </c>
+      <c r="F335" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>0.13245232544642799</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336" t="s">
+        <v>37</v>
+      </c>
+      <c r="F336" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>7.99720218928162E-2</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" t="s">
+        <v>37</v>
+      </c>
+      <c r="F337" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>6.8563367901234504E-2</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338" t="s">
+        <v>37</v>
+      </c>
+      <c r="F338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>0.14271530248447201</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" t="s">
+        <v>37</v>
+      </c>
+      <c r="F339" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>9.9173907423580607E-2</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" t="s">
+        <v>37</v>
+      </c>
+      <c r="F340" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2.6304472727272599E-2</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" t="s">
+        <v>37</v>
+      </c>
+      <c r="F341" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0.125456716666667</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" t="s">
+        <v>37</v>
+      </c>
+      <c r="F342" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0.108260801685393</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" t="s">
+        <v>37</v>
+      </c>
+      <c r="F343" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>0.108317</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" t="s">
+        <v>37</v>
+      </c>
+      <c r="F344" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0.11419960922619</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" t="s">
+        <v>37</v>
+      </c>
+      <c r="F345" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>9.0204551999999896E-2</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" t="s">
+        <v>37</v>
+      </c>
+      <c r="F346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3.3447333333333197E-2</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" t="s">
+        <v>37</v>
+      </c>
+      <c r="F347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>0.116215327027027</v>
+      </c>
+      <c r="B348" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" t="s">
+        <v>37</v>
+      </c>
+      <c r="F348" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4.68775352517984E-2</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" t="s">
+        <v>37</v>
+      </c>
+      <c r="F349" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>7.7277214017341E-2</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" t="s">
+        <v>37</v>
+      </c>
+      <c r="F350" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>0.18618685167785201</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>11</v>
+      </c>
+      <c r="E351" t="s">
+        <v>37</v>
+      </c>
+      <c r="F351" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0.116884491267123</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352" t="s">
+        <v>11</v>
+      </c>
+      <c r="E352" t="s">
+        <v>37</v>
+      </c>
+      <c r="F352" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>4.4426332027971902E-2</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353" t="s">
+        <v>37</v>
+      </c>
+      <c r="F353" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>8.4874538245614001E-2</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>11</v>
+      </c>
+      <c r="E354" t="s">
+        <v>37</v>
+      </c>
+      <c r="F354" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>0.10870457817371899</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>11</v>
+      </c>
+      <c r="E355" t="s">
+        <v>37</v>
+      </c>
+      <c r="F355" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>0.131428075651189</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" t="s">
+        <v>37</v>
+      </c>
+      <c r="F356" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>0.11439325266903901</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>11</v>
+      </c>
+      <c r="E357" t="s">
+        <v>37</v>
+      </c>
+      <c r="F357" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>9.3945802552204097E-2</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" t="s">
+        <v>37</v>
+      </c>
+      <c r="F358" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>7.9774541302027602E-2</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>11</v>
+      </c>
+      <c r="E359" t="s">
+        <v>37</v>
+      </c>
+      <c r="F359" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>0.15181683615465</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>11</v>
+      </c>
+      <c r="E360" t="s">
+        <v>37</v>
+      </c>
+      <c r="F360" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>6.9590027100840293E-2</v>
+      </c>
+      <c r="B361" t="s">
+        <v>9</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>11</v>
+      </c>
+      <c r="E361" t="s">
+        <v>37</v>
+      </c>
+      <c r="F361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>7.2676106711409297E-2</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>11</v>
+      </c>
+      <c r="E362" t="s">
+        <v>37</v>
+      </c>
+      <c r="F362" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>0.15746814817351601</v>
+      </c>
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363" t="s">
+        <v>37</v>
+      </c>
+      <c r="F363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>0.10538483968254</v>
+      </c>
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>11</v>
+      </c>
+      <c r="E364" t="s">
+        <v>37</v>
+      </c>
+      <c r="F364" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>6.3566007009345796E-2</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365" t="s">
+        <v>37</v>
+      </c>
+      <c r="F365" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>0.13260539473684199</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>11</v>
+      </c>
+      <c r="E366" t="s">
+        <v>37</v>
+      </c>
+      <c r="F366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3.9220005555555403E-2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367" t="s">
+        <v>37</v>
+      </c>
+      <c r="F367" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>9.5597104761904597E-2</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" t="s">
+        <v>37</v>
+      </c>
+      <c r="F368" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0.13937300683453199</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369" t="s">
+        <v>37</v>
+      </c>
+      <c r="F369" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>7.8443163999999899E-2</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" t="s">
+        <v>37</v>
+      </c>
+      <c r="F370" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3.4674858620689503E-2</v>
+      </c>
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" t="s">
+        <v>37</v>
+      </c>
+      <c r="F371" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>0.104525770348837</v>
+      </c>
+      <c r="B372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" t="s">
+        <v>37</v>
+      </c>
+      <c r="F372" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2.3775493975903499E-2</v>
+      </c>
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" t="s">
+        <v>37</v>
+      </c>
+      <c r="F373" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>9.1746197508125807E-2</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" t="s">
+        <v>37</v>
+      </c>
+      <c r="F374" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>0.18630246853146801</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" t="s">
+        <v>37</v>
+      </c>
+      <c r="F375" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>0.10989261180061</v>
+      </c>
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376" t="s">
+        <v>37</v>
+      </c>
+      <c r="F376" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>4.3799546799117003E-2</v>
+      </c>
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" t="s">
+        <v>37</v>
+      </c>
+      <c r="F377" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>9.7199557085020094E-2</v>
+      </c>
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" t="s">
+        <v>37</v>
+      </c>
+      <c r="F378" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>7.7079917694063804E-2</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379" t="s">
+        <v>37</v>
+      </c>
+      <c r="F379" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>0.108088632604895</v>
+      </c>
+      <c r="B380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" t="s">
+        <v>37</v>
+      </c>
+      <c r="F380" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>0.13189997776548701</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381" t="s">
+        <v>37</v>
+      </c>
+      <c r="F381" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>8.7137446629834303E-2</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" t="s">
+        <v>37</v>
+      </c>
+      <c r="F382" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>5.6486363730569901E-2</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383" t="s">
+        <v>37</v>
+      </c>
+      <c r="F383" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>0.12144598759469701</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>11</v>
+      </c>
+      <c r="E384" t="s">
+        <v>37</v>
+      </c>
+      <c r="F384" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>4.4870766958041902E-2</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" t="s">
+        <v>37</v>
+      </c>
+      <c r="F385" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>9.20240224961478E-2</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" t="s">
+        <v>38</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3.7469067032966902E-2</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" t="s">
+        <v>38</v>
+      </c>
+      <c r="F387" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>6.3277629121725604E-2</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388" t="s">
+        <v>38</v>
+      </c>
+      <c r="F388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2.4235026726726599E-2</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" t="s">
+        <v>38</v>
+      </c>
+      <c r="F389" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>0.10901724115226299</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" t="s">
+        <v>38</v>
+      </c>
+      <c r="F390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3.3912259630200101E-2</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>38</v>
+      </c>
+      <c r="F391" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>7.2366310493826996E-2</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" t="s">
+        <v>38</v>
+      </c>
+      <c r="F392" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>5.3088886928104401E-2</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" t="s">
+        <v>38</v>
+      </c>
+      <c r="F393" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>4.2553675549450498E-2</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" t="s">
+        <v>38</v>
+      </c>
+      <c r="F394" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>4.0377991990291101E-2</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>6</v>
+      </c>
+      <c r="E395" t="s">
+        <v>38</v>
+      </c>
+      <c r="F395" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>0.12432565747303501</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" t="s">
+        <v>38</v>
+      </c>
+      <c r="F396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>0.14223373605546999</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" t="s">
+        <v>38</v>
+      </c>
+      <c r="F397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>0.14382214176706801</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>6</v>
+      </c>
+      <c r="E398" t="s">
+        <v>38</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>0.12894297600872401</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>38</v>
+      </c>
+      <c r="F399" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>0.14426426324972699</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" t="s">
+        <v>38</v>
+      </c>
+      <c r="F400" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>0.101021573246951</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>38</v>
+      </c>
+      <c r="F401" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>0.13589067981018099</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" t="s">
+        <v>38</v>
+      </c>
+      <c r="F402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>8.2409779116465798E-2</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" t="s">
+        <v>38</v>
+      </c>
+      <c r="F403" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>0.151586400862813</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" t="s">
+        <v>38</v>
+      </c>
+      <c r="F404" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>0.13739270801393699</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" t="s">
+        <v>38</v>
+      </c>
+      <c r="F405" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>9.1979010468920402E-2</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" t="s">
+        <v>38</v>
+      </c>
+      <c r="F406" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>0.12060792749391699</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" t="s">
+        <v>38</v>
+      </c>
+      <c r="F407" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>0.107630203816794</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>38</v>
+      </c>
+      <c r="F408" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>0.22346616746987999</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>38</v>
+      </c>
+      <c r="F409" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>7.7296317111110999E-2</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>6</v>
+      </c>
+      <c r="E410" t="s">
+        <v>38</v>
+      </c>
+      <c r="F410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>3.9083372408758997E-2</v>
+      </c>
+      <c r="B411" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" t="s">
+        <v>38</v>
+      </c>
+      <c r="F411" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>8.1732059999999801E-2</v>
+      </c>
+      <c r="B412" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" t="s">
+        <v>38</v>
+      </c>
+      <c r="F412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>6.4437159999999896E-2</v>
+      </c>
+      <c r="B413" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>6</v>
+      </c>
+      <c r="E413" t="s">
+        <v>38</v>
+      </c>
+      <c r="F413" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>7.5568754409317596E-2</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" t="s">
+        <v>38</v>
+      </c>
+      <c r="F414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>0.102110026788685</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>6</v>
+      </c>
+      <c r="E415" t="s">
+        <v>38</v>
+      </c>
+      <c r="F415" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1.55266224625623E-2</v>
+      </c>
+      <c r="B416" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" t="s">
+        <v>38</v>
+      </c>
+      <c r="F416" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>0.12190175790725299</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" t="s">
+        <v>38</v>
+      </c>
+      <c r="F417" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>7.0107416431451602E-2</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>6</v>
+      </c>
+      <c r="E418" t="s">
+        <v>38</v>
+      </c>
+      <c r="F418" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>3.1263839999999897E-2</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" t="s">
+        <v>38</v>
+      </c>
+      <c r="F419" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>0.11415644647619</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" t="s">
+        <v>38</v>
+      </c>
+      <c r="F420" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>0.14908597687187999</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>6</v>
+      </c>
+      <c r="E421" t="s">
+        <v>38</v>
+      </c>
+      <c r="F421" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>0.15141185868995599</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>6</v>
+      </c>
+      <c r="E422" t="s">
+        <v>38</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>0.132808723473054</v>
+      </c>
+      <c r="B423" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>38</v>
+      </c>
+      <c r="F423" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>0.15336174700934599</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>6</v>
+      </c>
+      <c r="E424" t="s">
+        <v>38</v>
+      </c>
+      <c r="F424" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>0.137042640461538</v>
+      </c>
+      <c r="B425" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>6</v>
+      </c>
+      <c r="E425" t="s">
+        <v>38</v>
+      </c>
+      <c r="F425" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>0.14848207937625699</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" t="s">
+        <v>38</v>
+      </c>
+      <c r="F426" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>0.164702156639839</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>6</v>
+      </c>
+      <c r="E427" t="s">
+        <v>38</v>
+      </c>
+      <c r="F427" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>0.10964294688128801</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" t="s">
+        <v>38</v>
+      </c>
+      <c r="F428" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>0.17326148687002599</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>38</v>
+      </c>
+      <c r="F429" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>7.7903947595356501E-2</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430" t="s">
+        <v>6</v>
+      </c>
+      <c r="E430" t="s">
+        <v>38</v>
+      </c>
+      <c r="F430" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>0.11360790065420499</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" t="s">
+        <v>38</v>
+      </c>
+      <c r="F431" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>0.13622004233644799</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>38</v>
+      </c>
+      <c r="F432" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>0.210454344366197</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>6</v>
+      </c>
+      <c r="E433" t="s">
+        <v>38</v>
+      </c>
+      <c r="F433" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>0.115084022105263</v>
+      </c>
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>6</v>
+      </c>
+      <c r="E434" t="s">
+        <v>38</v>
+      </c>
+      <c r="F434" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>7.1761984615383197E-3</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>38</v>
+      </c>
+      <c r="F435" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>8.9588171028037095E-2</v>
+      </c>
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" t="s">
+        <v>38</v>
+      </c>
+      <c r="F436" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>-3.4765413043478403E-2</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>38</v>
+      </c>
+      <c r="F437" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>0.113810913076923</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>38</v>
+      </c>
+      <c r="F438" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>8.3860114736842004E-2</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>6</v>
+      </c>
+      <c r="E439" t="s">
+        <v>38</v>
+      </c>
+      <c r="F439" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>0.16665916174957099</v>
+      </c>
+      <c r="B440" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>6</v>
+      </c>
+      <c r="E440" t="s">
+        <v>38</v>
+      </c>
+      <c r="F440" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>6.8329967066895203E-2</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>38</v>
+      </c>
+      <c r="F441" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>9.7072878048779995E-3</v>
+      </c>
+      <c r="B442" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="s">
+        <v>6</v>
+      </c>
+      <c r="E442" t="s">
+        <v>38</v>
+      </c>
+      <c r="F442" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>7.2856642682926603E-2</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" t="s">
+        <v>38</v>
+      </c>
+      <c r="F443" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>8.5410914634146101E-2</v>
+      </c>
+      <c r="B444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>38</v>
+      </c>
+      <c r="F444" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>0.16676292631578901</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>38</v>
+      </c>
+      <c r="F445" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>7.9010987541712999E-2</v>
+      </c>
+      <c r="B446" t="s">
+        <v>9</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" t="s">
+        <v>38</v>
+      </c>
+      <c r="F446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0.11683459788654101</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>38</v>
+      </c>
+      <c r="F447" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0.127038132526475</v>
+      </c>
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" t="s">
+        <v>38</v>
+      </c>
+      <c r="F448" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3.8887995431976102E-2</v>
+      </c>
+      <c r="B449" t="s">
+        <v>9</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>38</v>
+      </c>
+      <c r="F449" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>0.111755333368092</v>
+      </c>
+      <c r="B450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" t="s">
+        <v>38</v>
+      </c>
+      <c r="F450" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>9.9681369187986701E-2</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E451" t="s">
+        <v>38</v>
+      </c>
+      <c r="F451" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>0.12622983517786601</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" t="s">
+        <v>38</v>
+      </c>
+      <c r="F452" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>7.2335636363636199E-2</v>
+      </c>
+      <c r="B453" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="s">
+        <v>38</v>
+      </c>
+      <c r="F453" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>4.3797562148070797E-2</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>6</v>
+      </c>
+      <c r="E454" t="s">
+        <v>38</v>
+      </c>
+      <c r="F454" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>4.1361686593842997E-2</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>6</v>
+      </c>
+      <c r="E455" t="s">
+        <v>38</v>
+      </c>
+      <c r="F455" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>7.8837507403545296E-2</v>
+      </c>
+      <c r="B456" t="s">
+        <v>9</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>38</v>
+      </c>
+      <c r="F456" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>0.15033162436040001</v>
+      </c>
+      <c r="B457" t="s">
+        <v>9</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>38</v>
+      </c>
+      <c r="F457" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>8.4378506249999902E-2</v>
+      </c>
+      <c r="B458" t="s">
+        <v>10</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>6</v>
+      </c>
+      <c r="E458" t="s">
+        <v>38</v>
+      </c>
+      <c r="F458" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>7.9572657499999797E-2</v>
+      </c>
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>6</v>
+      </c>
+      <c r="E459" t="s">
+        <v>38</v>
+      </c>
+      <c r="F459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>7.1132653124999903E-2</v>
+      </c>
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>6</v>
+      </c>
+      <c r="E460" t="s">
+        <v>38</v>
+      </c>
+      <c r="F460" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>9.5994215520628604E-2</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>6</v>
+      </c>
+      <c r="E461" t="s">
+        <v>38</v>
+      </c>
+      <c r="F461" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>6.2862202083333193E-2</v>
+      </c>
+      <c r="B462" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>6</v>
+      </c>
+      <c r="E462" t="s">
+        <v>38</v>
+      </c>
+      <c r="F462" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>7.8230755624999801E-2</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>6</v>
+      </c>
+      <c r="E463" t="s">
+        <v>38</v>
+      </c>
+      <c r="F463" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>0.14166233958333299</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>6</v>
+      </c>
+      <c r="E464" t="s">
+        <v>38</v>
+      </c>
+      <c r="F464" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>0.12928951659388599</v>
+      </c>
+      <c r="B465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>6</v>
+      </c>
+      <c r="E465" t="s">
+        <v>38</v>
+      </c>
+      <c r="F465" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>8.2466210624999897E-2</v>
+      </c>
+      <c r="B466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>6</v>
+      </c>
+      <c r="E466" t="s">
+        <v>38</v>
+      </c>
+      <c r="F466" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>8.8171070833333101E-2</v>
+      </c>
+      <c r="B467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>6</v>
+      </c>
+      <c r="E467" t="s">
+        <v>38</v>
+      </c>
+      <c r="F467" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>8.7006762499999904E-2</v>
+      </c>
+      <c r="B468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>6</v>
+      </c>
+      <c r="E468" t="s">
+        <v>38</v>
+      </c>
+      <c r="F468" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>0.17141409625000001</v>
+      </c>
+      <c r="B469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>6</v>
+      </c>
+      <c r="E469" t="s">
+        <v>38</v>
+      </c>
+      <c r="F469" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>0.114655219166667</v>
+      </c>
+      <c r="B470" t="s">
+        <v>10</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>6</v>
+      </c>
+      <c r="E470" t="s">
+        <v>38</v>
+      </c>
+      <c r="F470" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>9.3124153345070196E-2</v>
+      </c>
+      <c r="B471" t="s">
+        <v>10</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>6</v>
+      </c>
+      <c r="E471" t="s">
+        <v>38</v>
+      </c>
+      <c r="F471" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>0.13466313802816901</v>
+      </c>
+      <c r="B472" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>6</v>
+      </c>
+      <c r="E472" t="s">
+        <v>38</v>
+      </c>
+      <c r="F472" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>4.15221509040333E-2</v>
+      </c>
+      <c r="B473" t="s">
+        <v>10</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>6</v>
+      </c>
+      <c r="E473" t="s">
+        <v>38</v>
+      </c>
+      <c r="F473" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>0.12004185774647901</v>
+      </c>
+      <c r="B474" t="s">
+        <v>10</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>6</v>
+      </c>
+      <c r="E474" t="s">
+        <v>38</v>
+      </c>
+      <c r="F474" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>7.12889826584506E-2</v>
+      </c>
+      <c r="B475" t="s">
+        <v>10</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>6</v>
+      </c>
+      <c r="E475" t="s">
+        <v>38</v>
+      </c>
+      <c r="F475" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0.139197970592949</v>
+      </c>
+      <c r="B476" t="s">
+        <v>10</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>6</v>
+      </c>
+      <c r="E476" t="s">
+        <v>38</v>
+      </c>
+      <c r="F476" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0.12791343205248401</v>
+      </c>
+      <c r="B477" t="s">
+        <v>10</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>6</v>
+      </c>
+      <c r="E477" t="s">
+        <v>38</v>
+      </c>
+      <c r="F477" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>4.5671126936619698E-2</v>
+      </c>
+      <c r="B478" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>6</v>
+      </c>
+      <c r="E478" t="s">
+        <v>38</v>
+      </c>
+      <c r="F478" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>5.09958149038462E-2</v>
+      </c>
+      <c r="B479" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>6</v>
+      </c>
+      <c r="E479" t="s">
+        <v>38</v>
+      </c>
+      <c r="F479" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>7.8273821302816904E-2</v>
+      </c>
+      <c r="B480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480" t="s">
+        <v>6</v>
+      </c>
+      <c r="E480" t="s">
+        <v>38</v>
+      </c>
+      <c r="F480" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0.14436254727112699</v>
+      </c>
+      <c r="B481" t="s">
+        <v>10</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>6</v>
+      </c>
+      <c r="E481" t="s">
+        <v>38</v>
+      </c>
+      <c r="F481" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>-2.6067045679012399E-2</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" t="s">
+        <v>11</v>
+      </c>
+      <c r="E482" t="s">
+        <v>38</v>
+      </c>
+      <c r="F482" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>7.6254176579352698E-2</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>11</v>
+      </c>
+      <c r="E483" t="s">
+        <v>38</v>
+      </c>
+      <c r="F483" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>-3.5694770724191201E-2</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>11</v>
+      </c>
+      <c r="E484" t="s">
+        <v>38</v>
+      </c>
+      <c r="F484" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>-2.8674011650485502E-2</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
+        <v>11</v>
+      </c>
+      <c r="E485" t="s">
+        <v>38</v>
+      </c>
+      <c r="F485" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2.83126063106795E-2</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
+        <v>11</v>
+      </c>
+      <c r="E486" t="s">
+        <v>38</v>
+      </c>
+      <c r="F486" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>-5.4714893682590304E-3</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>11</v>
+      </c>
+      <c r="E487" t="s">
+        <v>38</v>
+      </c>
+      <c r="F487" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>-2.71878977072327E-3</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>11</v>
+      </c>
+      <c r="E488" t="s">
+        <v>38</v>
+      </c>
+      <c r="F488" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>6.5546252947719499E-2</v>
+      </c>
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>11</v>
+      </c>
+      <c r="E489" t="s">
+        <v>38</v>
+      </c>
+      <c r="F489" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1.0867140986132401E-2</v>
+      </c>
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
+        <v>11</v>
+      </c>
+      <c r="E490" t="s">
+        <v>38</v>
+      </c>
+      <c r="F490" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>-1.2643216262135999E-2</v>
+      </c>
+      <c r="B491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>11</v>
+      </c>
+      <c r="E491" t="s">
+        <v>38</v>
+      </c>
+      <c r="F491" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>7.5016686126373494E-2</v>
+      </c>
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>11</v>
+      </c>
+      <c r="E492" t="s">
+        <v>38</v>
+      </c>
+      <c r="F492" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>-5.24139629629631E-2</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>11</v>
+      </c>
+      <c r="E493" t="s">
+        <v>38</v>
+      </c>
+      <c r="F493" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>5.3180322541743902E-2</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s">
+        <v>11</v>
+      </c>
+      <c r="E494" t="s">
+        <v>38</v>
+      </c>
+      <c r="F494" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>0.15764971104417699</v>
+      </c>
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s">
+        <v>11</v>
+      </c>
+      <c r="E495" t="s">
+        <v>38</v>
+      </c>
+      <c r="F495" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>9.0869885642570106E-2</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>11</v>
+      </c>
+      <c r="E496" t="s">
+        <v>38</v>
+      </c>
+      <c r="F496" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>4.4606910786698997E-2</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s">
+        <v>11</v>
+      </c>
+      <c r="E497" t="s">
+        <v>38</v>
+      </c>
+      <c r="F497" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>8.5067862773722594E-2</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s">
+        <v>11</v>
+      </c>
+      <c r="E498" t="s">
+        <v>38</v>
+      </c>
+      <c r="F498" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>9.5668594979919405E-2</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499" t="s">
+        <v>11</v>
+      </c>
+      <c r="E499" t="s">
+        <v>38</v>
+      </c>
+      <c r="F499" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>9.8076371799628997E-2</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500" t="s">
+        <v>11</v>
+      </c>
+      <c r="E500" t="s">
+        <v>38</v>
+      </c>
+      <c r="F500" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>0.12395091541554901</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>11</v>
+      </c>
+      <c r="E501" t="s">
+        <v>38</v>
+      </c>
+      <c r="F501" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>9.1780024096385304E-2</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s">
+        <v>11</v>
+      </c>
+      <c r="E502" t="s">
+        <v>38</v>
+      </c>
+      <c r="F502" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>7.0928090916463807E-2</v>
+      </c>
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>11</v>
+      </c>
+      <c r="E503" t="s">
+        <v>38</v>
+      </c>
+      <c r="F503" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>0.138433547982552</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>11</v>
+      </c>
+      <c r="E504" t="s">
+        <v>38</v>
+      </c>
+      <c r="F504" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>7.31093742018981E-2</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505" t="s">
+        <v>11</v>
+      </c>
+      <c r="E505" t="s">
+        <v>38</v>
+      </c>
+      <c r="F505" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>-1.7729054242928501E-2</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>11</v>
+      </c>
+      <c r="E506" t="s">
+        <v>38</v>
+      </c>
+      <c r="F506" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>9.2491514642262795E-2</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>11</v>
+      </c>
+      <c r="E507" t="s">
+        <v>38</v>
+      </c>
+      <c r="F507" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>-4.4759912761904899E-2</v>
+      </c>
+      <c r="B508" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>11</v>
+      </c>
+      <c r="E508" t="s">
+        <v>38</v>
+      </c>
+      <c r="F508" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>-3.11827867796611E-2</v>
+      </c>
+      <c r="B509" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>11</v>
+      </c>
+      <c r="E509" t="s">
+        <v>38</v>
+      </c>
+      <c r="F509" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>-1.41476650582364E-2</v>
+      </c>
+      <c r="B510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>11</v>
+      </c>
+      <c r="E510" t="s">
+        <v>38</v>
+      </c>
+      <c r="F510" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>4.3141404736841901E-2</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>11</v>
+      </c>
+      <c r="E511" t="s">
+        <v>38</v>
+      </c>
+      <c r="F511" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>-4.9987553410981697E-2</v>
+      </c>
+      <c r="B512" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>11</v>
+      </c>
+      <c r="E512" t="s">
+        <v>38</v>
+      </c>
+      <c r="F512" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>0.103584002658789</v>
+      </c>
+      <c r="B513" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" t="s">
+        <v>11</v>
+      </c>
+      <c r="E513" t="s">
+        <v>38</v>
+      </c>
+      <c r="F513" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>-4.5672562666666701E-2</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>11</v>
+      </c>
+      <c r="E514" t="s">
+        <v>38</v>
+      </c>
+      <c r="F514" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>-5.3546183602150597E-2</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
+        <v>11</v>
+      </c>
+      <c r="E515" t="s">
+        <v>38</v>
+      </c>
+      <c r="F515" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>6.1196388478581901E-2</v>
+      </c>
+      <c r="B516" t="s">
+        <v>8</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>11</v>
+      </c>
+      <c r="E516" t="s">
+        <v>38</v>
+      </c>
+      <c r="F516" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>-8.1327166129032402E-2</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="s">
+        <v>11</v>
+      </c>
+      <c r="E517" t="s">
+        <v>38</v>
+      </c>
+      <c r="F517" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>4.6537038430583502E-2</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>11</v>
+      </c>
+      <c r="E518" t="s">
+        <v>38</v>
+      </c>
+      <c r="F518" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0.14998311981891299</v>
+      </c>
+      <c r="B519" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519" t="s">
+        <v>11</v>
+      </c>
+      <c r="E519" t="s">
+        <v>38</v>
+      </c>
+      <c r="F519" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>9.5477289532710105E-2</v>
+      </c>
+      <c r="B520" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>11</v>
+      </c>
+      <c r="E520" t="s">
+        <v>38</v>
+      </c>
+      <c r="F520" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>5.6346249846153801E-2</v>
+      </c>
+      <c r="B521" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>11</v>
+      </c>
+      <c r="E521" t="s">
+        <v>38</v>
+      </c>
+      <c r="F521" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>8.0584171132897495E-2</v>
+      </c>
+      <c r="B522" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>11</v>
+      </c>
+      <c r="E522" t="s">
+        <v>38</v>
+      </c>
+      <c r="F522" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>0.135105029101796</v>
+      </c>
+      <c r="B523" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>11</v>
+      </c>
+      <c r="E523" t="s">
+        <v>38</v>
+      </c>
+      <c r="F523" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>7.9119388126361503E-2</v>
+      </c>
+      <c r="B524" t="s">
+        <v>8</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>11</v>
+      </c>
+      <c r="E524" t="s">
+        <v>38</v>
+      </c>
+      <c r="F524" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>0.13408552167755999</v>
+      </c>
+      <c r="B525" t="s">
+        <v>8</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>11</v>
+      </c>
+      <c r="E525" t="s">
+        <v>38</v>
+      </c>
+      <c r="F525" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>8.9253600000000002E-2</v>
+      </c>
+      <c r="B526" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" t="s">
+        <v>11</v>
+      </c>
+      <c r="E526" t="s">
+        <v>38</v>
+      </c>
+      <c r="F526" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>5.7220670655021802E-2</v>
+      </c>
+      <c r="B527" t="s">
+        <v>8</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>11</v>
+      </c>
+      <c r="E527" t="s">
+        <v>38</v>
+      </c>
+      <c r="F527" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>0.12884653921568601</v>
+      </c>
+      <c r="B528" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528" t="s">
+        <v>11</v>
+      </c>
+      <c r="E528" t="s">
+        <v>38</v>
+      </c>
+      <c r="F528" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>4.3694323139820003E-2</v>
+      </c>
+      <c r="B529" t="s">
+        <v>8</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>11</v>
+      </c>
+      <c r="E529" t="s">
+        <v>38</v>
+      </c>
+      <c r="F529" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>2.0620562641509299E-2</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>11</v>
+      </c>
+      <c r="E530" t="s">
+        <v>38</v>
+      </c>
+      <c r="F530" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>0.13186412623906699</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="s">
+        <v>11</v>
+      </c>
+      <c r="E531" t="s">
+        <v>38</v>
+      </c>
+      <c r="F531" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2.55530612244897E-2</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
+        <v>11</v>
+      </c>
+      <c r="E532" t="s">
+        <v>38</v>
+      </c>
+      <c r="F532" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>-7.9027446341463498E-2</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
+        <v>11</v>
+      </c>
+      <c r="E533" t="s">
+        <v>38</v>
+      </c>
+      <c r="F533" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>-1.8409617073170799E-2</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>11</v>
+      </c>
+      <c r="E534" t="s">
+        <v>38</v>
+      </c>
+      <c r="F534" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>7.7834640887850304E-2</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
+        <v>11</v>
+      </c>
+      <c r="E535" t="s">
+        <v>38</v>
+      </c>
+      <c r="F535" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>3.9471729999999802E-2</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
+        <v>11</v>
+      </c>
+      <c r="E536" t="s">
+        <v>38</v>
+      </c>
+      <c r="F536" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>7.7772526168224193E-2</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537" t="s">
+        <v>11</v>
+      </c>
+      <c r="E537" t="s">
+        <v>38</v>
+      </c>
+      <c r="F537" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>-3.7654295384615399E-2</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>11</v>
+      </c>
+      <c r="E538" t="s">
+        <v>38</v>
+      </c>
+      <c r="F538" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>-1.53729608695654E-2</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539" t="s">
+        <v>11</v>
+      </c>
+      <c r="E539" t="s">
+        <v>38</v>
+      </c>
+      <c r="F539" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>9.5249121538461406E-2</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="s">
+        <v>11</v>
+      </c>
+      <c r="E540" t="s">
+        <v>38</v>
+      </c>
+      <c r="F540" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>1.6033369473684101E-2</v>
+      </c>
+      <c r="B541" t="s">
+        <v>9</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
+        <v>11</v>
+      </c>
+      <c r="E541" t="s">
+        <v>38</v>
+      </c>
+      <c r="F541" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>5.9310256917475698E-2</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+      <c r="D542" t="s">
+        <v>11</v>
+      </c>
+      <c r="E542" t="s">
+        <v>38</v>
+      </c>
+      <c r="F542" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>0.18591302493297601</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543" t="s">
+        <v>11</v>
+      </c>
+      <c r="E543" t="s">
+        <v>38</v>
+      </c>
+      <c r="F543" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>8.3901509383377898E-2</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+      <c r="D544" t="s">
+        <v>11</v>
+      </c>
+      <c r="E544" t="s">
+        <v>38</v>
+      </c>
+      <c r="F544" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>2.4339202681231301E-2</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>11</v>
+      </c>
+      <c r="E545" t="s">
+        <v>38</v>
+      </c>
+      <c r="F545" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>7.3026620855057303E-2</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C546">
+        <v>2</v>
+      </c>
+      <c r="D546" t="s">
+        <v>11</v>
+      </c>
+      <c r="E546" t="s">
+        <v>38</v>
+      </c>
+      <c r="F546" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>7.7139120446735293E-2</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547" t="s">
+        <v>11</v>
+      </c>
+      <c r="E547" t="s">
+        <v>38</v>
+      </c>
+      <c r="F547" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>0.11686678488008299</v>
+      </c>
+      <c r="B548" t="s">
+        <v>9</v>
+      </c>
+      <c r="C548">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>11</v>
+      </c>
+      <c r="E548" t="s">
+        <v>38</v>
+      </c>
+      <c r="F548" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>9.2269685022692796E-2</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+      <c r="D549" t="s">
+        <v>11</v>
+      </c>
+      <c r="E549" t="s">
+        <v>38</v>
+      </c>
+      <c r="F549" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>8.9607563403781898E-2</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+      <c r="D550" t="s">
+        <v>11</v>
+      </c>
+      <c r="E550" t="s">
+        <v>38</v>
+      </c>
+      <c r="F550" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>7.2906776166831999E-2</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>11</v>
+      </c>
+      <c r="E551" t="s">
+        <v>38</v>
+      </c>
+      <c r="F551" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>0.151439711261731</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s">
+        <v>11</v>
+      </c>
+      <c r="E552" t="s">
+        <v>38</v>
+      </c>
+      <c r="F552" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1.0096528809788599E-2</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>11</v>
+      </c>
+      <c r="E553" t="s">
+        <v>38</v>
+      </c>
+      <c r="F553" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>3.6039664628820897E-2</v>
+      </c>
+      <c r="B554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554" t="s">
+        <v>11</v>
+      </c>
+      <c r="E554" t="s">
+        <v>38</v>
+      </c>
+      <c r="F554" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>0.15746814817351601</v>
+      </c>
+      <c r="B555" t="s">
+        <v>10</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555" t="s">
+        <v>11</v>
+      </c>
+      <c r="E555" t="s">
+        <v>38</v>
+      </c>
+      <c r="F555" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>-6.5361755625000101E-2</v>
+      </c>
+      <c r="B556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>11</v>
+      </c>
+      <c r="E556" t="s">
+        <v>38</v>
+      </c>
+      <c r="F556" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>3.7054262738301501E-2</v>
+      </c>
+      <c r="B557" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557" t="s">
+        <v>11</v>
+      </c>
+      <c r="E557" t="s">
+        <v>38</v>
+      </c>
+      <c r="F557" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>5.4748093749999198E-3</v>
+      </c>
+      <c r="B558" t="s">
+        <v>10</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558" t="s">
+        <v>11</v>
+      </c>
+      <c r="E558" t="s">
+        <v>38</v>
+      </c>
+      <c r="F558" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>-6.6437013541666701E-2</v>
+      </c>
+      <c r="B559" t="s">
+        <v>10</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>11</v>
+      </c>
+      <c r="E559" t="s">
+        <v>38</v>
+      </c>
+      <c r="F559" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>8.0175810416666493E-2</v>
+      </c>
+      <c r="B560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" t="s">
+        <v>11</v>
+      </c>
+      <c r="E560" t="s">
+        <v>38</v>
+      </c>
+      <c r="F560" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>0.126984171717172</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>11</v>
+      </c>
+      <c r="E561" t="s">
+        <v>38</v>
+      </c>
+      <c r="F561" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>-3.6604337500000098E-2</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562" t="s">
+        <v>11</v>
+      </c>
+      <c r="E562" t="s">
+        <v>38</v>
+      </c>
+      <c r="F562" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>6.1443437499998201E-3</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563" t="s">
+        <v>11</v>
+      </c>
+      <c r="E563" t="s">
+        <v>38</v>
+      </c>
+      <c r="F563" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>7.6550913537117807E-2</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="s">
+        <v>11</v>
+      </c>
+      <c r="E564" t="s">
+        <v>38</v>
+      </c>
+      <c r="F564" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>-1.8562161250000202E-2</v>
+      </c>
+      <c r="B565" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565" t="s">
+        <v>11</v>
+      </c>
+      <c r="E565" t="s">
+        <v>38</v>
+      </c>
+      <c r="F565" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>8.3140115415415494E-2</v>
+      </c>
+      <c r="B566" t="s">
+        <v>10</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566" t="s">
+        <v>11</v>
+      </c>
+      <c r="E566" t="s">
+        <v>38</v>
+      </c>
+      <c r="F566" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>0.18630246853146801</v>
+      </c>
+      <c r="B567" t="s">
+        <v>10</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+      <c r="D567" t="s">
+        <v>11</v>
+      </c>
+      <c r="E567" t="s">
+        <v>38</v>
+      </c>
+      <c r="F567" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>9.1648336619718301E-2</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568">
+        <v>2</v>
+      </c>
+      <c r="D568" t="s">
+        <v>11</v>
+      </c>
+      <c r="E568" t="s">
+        <v>38</v>
+      </c>
+      <c r="F568" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>2.14331360856269E-2</v>
+      </c>
+      <c r="B569" t="s">
+        <v>10</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>11</v>
+      </c>
+      <c r="E569" t="s">
+        <v>38</v>
+      </c>
+      <c r="F569" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>7.3150236999999896E-2</v>
+      </c>
+      <c r="B570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>11</v>
+      </c>
+      <c r="E570" t="s">
+        <v>38</v>
+      </c>
+      <c r="F570" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>4.3001840499999902E-2</v>
+      </c>
+      <c r="B571" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+      <c r="D571" t="s">
+        <v>11</v>
+      </c>
+      <c r="E571" t="s">
+        <v>38</v>
+      </c>
+      <c r="F571" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>9.5841657451922899E-2</v>
+      </c>
+      <c r="B572" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>11</v>
+      </c>
+      <c r="E572" t="s">
+        <v>38</v>
+      </c>
+      <c r="F572" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>0.11627603063063099</v>
+      </c>
+      <c r="B573" t="s">
+        <v>10</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+      <c r="D573" t="s">
+        <v>11</v>
+      </c>
+      <c r="E573" t="s">
+        <v>38</v>
+      </c>
+      <c r="F573" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>6.9622333645735696E-2</v>
+      </c>
+      <c r="B574" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+      <c r="D574" t="s">
+        <v>11</v>
+      </c>
+      <c r="E574" t="s">
+        <v>38</v>
+      </c>
+      <c r="F574" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>3.8637883253205101E-2</v>
+      </c>
+      <c r="B575" t="s">
+        <v>10</v>
+      </c>
+      <c r="C575">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>11</v>
+      </c>
+      <c r="E575" t="s">
+        <v>38</v>
+      </c>
+      <c r="F575" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>0.11991547507029</v>
+      </c>
+      <c r="B576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+      <c r="D576" t="s">
+        <v>11</v>
+      </c>
+      <c r="E576" t="s">
+        <v>38</v>
+      </c>
+      <c r="F576" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>5.1218052816901002E-3</v>
+      </c>
+      <c r="B577" t="s">
+        <v>10</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+      <c r="D577" t="s">
+        <v>11</v>
+      </c>
+      <c r="E577" t="s">
+        <v>38</v>
+      </c>
+      <c r="F577" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
